--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_no_assign_models_results_Date_threshold_10_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_no_assign_models_results_Date_threshold_10_1_replicas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="313">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -88,133 +88,139 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>0.961+/-0.001</t>
-  </si>
-  <si>
-    <t>0.79+/-0.0</t>
-  </si>
-  <si>
-    <t>0.743</t>
-  </si>
-  <si>
-    <t>0.999+/-0.0</t>
-  </si>
-  <si>
-    <t>0.367+/-0.093</t>
-  </si>
-  <si>
-    <t>0.319</t>
-  </si>
-  <si>
-    <t>0.808+/-0.004</t>
-  </si>
-  <si>
-    <t>0.071+/-0.026</t>
-  </si>
-  <si>
-    <t>0.243</t>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.958+/-0.009</t>
+  </si>
+  <si>
+    <t>0.783+/-0.0</t>
+  </si>
+  <si>
+    <t>0.785</t>
+  </si>
+  <si>
+    <t>0.974+/-0.075</t>
+  </si>
+  <si>
+    <t>0.342+/-0.107</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.827+/-0.057</t>
+  </si>
+  <si>
+    <t>0.08+/-0.047</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.537+/-0.059</t>
+  </si>
+  <si>
+    <t>0.2+/-0.332</t>
   </si>
   <si>
     <t>0.002+/-0.0</t>
   </si>
   <si>
-    <t>0.557+/-0.06</t>
-  </si>
-  <si>
-    <t>0.2+/-0.332</t>
-  </si>
-  <si>
     <t>0.002+/-0.003</t>
   </si>
   <si>
-    <t>0.334+/-0.056</t>
-  </si>
-  <si>
-    <t>0.614+/-0.028</t>
-  </si>
-  <si>
-    <t>0.611+/-0.0</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.278+/-0.008</t>
-  </si>
-  <si>
-    <t>0.277+/-0.017</t>
-  </si>
-  <si>
-    <t>0.569+/-0.042</t>
-  </si>
-  <si>
-    <t>0.569+/-0.049</t>
-  </si>
-  <si>
-    <t>0.496</t>
-  </si>
-  <si>
-    <t>0.005+/-0.0</t>
-  </si>
-  <si>
-    <t>0.691+/-0.005</t>
-  </si>
-  <si>
-    <t>0.69+/-0.0</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.306+/-0.003</t>
-  </si>
-  <si>
-    <t>0.305+/-0.026</t>
-  </si>
-  <si>
-    <t>0.255</t>
-  </si>
-  <si>
-    <t>0.422+/-0.015</t>
-  </si>
-  <si>
-    <t>0.418+/-0.033</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>0.006+/-0.0</t>
-  </si>
-  <si>
-    <t>0.816+/-0.005</t>
-  </si>
-  <si>
-    <t>0.784+/-0.0</t>
-  </si>
-  <si>
-    <t>0.778</t>
-  </si>
-  <si>
-    <t>0.72+/-0.076</t>
-  </si>
-  <si>
-    <t>0.328+/-0.066</t>
-  </si>
-  <si>
-    <t>0.277</t>
-  </si>
-  <si>
-    <t>0.149+/-0.055</t>
-  </si>
-  <si>
-    <t>0.064+/-0.028</t>
-  </si>
-  <si>
-    <t>0.061</t>
-  </si>
-  <si>
-    <t>3.588+/-0.747</t>
+    <t>0.504+/-0.106</t>
+  </si>
+  <si>
+    <t>0.627+/-0.026</t>
+  </si>
+  <si>
+    <t>0.625+/-0.0</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.282+/-0.008</t>
+  </si>
+  <si>
+    <t>0.28+/-0.017</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>0.545+/-0.04</t>
+  </si>
+  <si>
+    <t>0.544+/-0.052</t>
+  </si>
+  <si>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>0.008+/-0.002</t>
+  </si>
+  <si>
+    <t>0.694+/-0.003</t>
+  </si>
+  <si>
+    <t>0.694+/-0.0</t>
+  </si>
+  <si>
+    <t>0.676</t>
+  </si>
+  <si>
+    <t>0.312+/-0.002</t>
+  </si>
+  <si>
+    <t>0.313+/-0.025</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.433+/-0.012</t>
+  </si>
+  <si>
+    <t>0.433+/-0.035</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.01+/-0.001</t>
+  </si>
+  <si>
+    <t>0.824+/-0.005</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.749+/-0.059</t>
+  </si>
+  <si>
+    <t>0.348+/-0.069</t>
+  </si>
+  <si>
+    <t>0.367</t>
+  </si>
+  <si>
+    <t>0.192+/-0.04</t>
+  </si>
+  <si>
+    <t>0.086+/-0.023</t>
+  </si>
+  <si>
+    <t>0.059</t>
+  </si>
+  <si>
+    <t>16.363+/-8.839</t>
   </si>
   <si>
     <t>0.837+/-0.002</t>
@@ -223,28 +229,28 @@
     <t>0.775+/-0.0</t>
   </si>
   <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>0.855+/-0.048</t>
-  </si>
-  <si>
-    <t>0.288+/-0.084</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>0.23+/-0.028</t>
-  </si>
-  <si>
-    <t>0.082+/-0.034</t>
-  </si>
-  <si>
-    <t>0.088</t>
-  </si>
-  <si>
-    <t>0.048+/-0.003</t>
+    <t>0.769</t>
+  </si>
+  <si>
+    <t>0.856+/-0.051</t>
+  </si>
+  <si>
+    <t>0.288+/-0.099</t>
+  </si>
+  <si>
+    <t>0.267</t>
+  </si>
+  <si>
+    <t>0.232+/-0.028</t>
+  </si>
+  <si>
+    <t>0.078+/-0.03</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>0.093+/-0.016</t>
   </si>
   <si>
     <t>0.832+/-0.005</t>
@@ -253,594 +259,594 @@
     <t>0.781+/-0.0</t>
   </si>
   <si>
-    <t>0.784</t>
-  </si>
-  <si>
-    <t>0.844+/-0.051</t>
-  </si>
-  <si>
-    <t>0.319+/-0.08</t>
+    <t>0.786</t>
+  </si>
+  <si>
+    <t>0.85+/-0.057</t>
+  </si>
+  <si>
+    <t>0.315+/-0.081</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.203+/-0.033</t>
+  </si>
+  <si>
+    <t>0.075+/-0.024</t>
+  </si>
+  <si>
+    <t>0.072</t>
+  </si>
+  <si>
+    <t>0.119+/-0.008</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>0.922+/-0.033</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.011+/-0.001</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>20.789+/-2.026</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.968+/-0.001</t>
+  </si>
+  <si>
+    <t>0.845+/-0.0</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.373+/-0.104</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>0.785+/-0.004</t>
+  </si>
+  <si>
+    <t>0.044+/-0.014</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.004+/-0.001</t>
+  </si>
+  <si>
+    <t>0.567+/-0.111</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.001+/-0.003</t>
+  </si>
+  <si>
+    <t>0.558+/-0.089</t>
+  </si>
+  <si>
+    <t>0.679+/-0.021</t>
+  </si>
+  <si>
+    <t>0.678+/-0.0</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>0.237+/-0.007</t>
+  </si>
+  <si>
+    <t>0.236+/-0.018</t>
+  </si>
+  <si>
+    <t>0.213</t>
+  </si>
+  <si>
+    <t>0.512+/-0.032</t>
+  </si>
+  <si>
+    <t>0.508+/-0.032</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.732+/-0.003</t>
+  </si>
+  <si>
+    <t>0.732+/-0.0</t>
+  </si>
+  <si>
+    <t>0.713</t>
+  </si>
+  <si>
+    <t>0.258+/-0.002</t>
+  </si>
+  <si>
+    <t>0.257+/-0.019</t>
+  </si>
+  <si>
+    <t>0.221</t>
+  </si>
+  <si>
+    <t>0.418+/-0.01</t>
+  </si>
+  <si>
+    <t>0.415+/-0.029</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.864+/-0.004</t>
+  </si>
+  <si>
+    <t>0.836+/-0.0</t>
+  </si>
+  <si>
+    <t>0.848</t>
+  </si>
+  <si>
+    <t>0.778+/-0.072</t>
+  </si>
+  <si>
+    <t>0.258+/-0.18</t>
+  </si>
+  <si>
+    <t>0.412</t>
+  </si>
+  <si>
+    <t>0.142+/-0.056</t>
+  </si>
+  <si>
+    <t>0.048+/-0.038</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>6.928+/-1.899</t>
+  </si>
+  <si>
+    <t>0.88+/-0.003</t>
+  </si>
+  <si>
+    <t>0.829+/-0.0</t>
+  </si>
+  <si>
+    <t>0.834</t>
+  </si>
+  <si>
+    <t>0.892+/-0.022</t>
+  </si>
+  <si>
+    <t>0.265+/-0.047</t>
+  </si>
+  <si>
+    <t>0.254</t>
+  </si>
+  <si>
+    <t>0.226+/-0.026</t>
+  </si>
+  <si>
+    <t>0.076+/-0.015</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>0.08+/-0.003</t>
+  </si>
+  <si>
+    <t>0.874+/-0.003</t>
+  </si>
+  <si>
+    <t>0.832</t>
+  </si>
+  <si>
+    <t>0.872+/-0.039</t>
+  </si>
+  <si>
+    <t>0.223+/-0.057</t>
+  </si>
+  <si>
+    <t>0.207</t>
+  </si>
+  <si>
+    <t>0.192+/-0.021</t>
+  </si>
+  <si>
+    <t>0.056+/-0.019</t>
+  </si>
+  <si>
+    <t>0.043</t>
+  </si>
+  <si>
+    <t>0.101+/-0.004</t>
+  </si>
+  <si>
+    <t>0.851+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.959+/-0.052</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>16.045+/-1.397</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.977+/-0.001</t>
+  </si>
+  <si>
+    <t>0.702+/-0.0</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>0.372+/-0.055</t>
+  </si>
+  <si>
+    <t>0.378</t>
+  </si>
+  <si>
+    <t>0.915+/-0.002</t>
+  </si>
+  <si>
+    <t>0.116+/-0.026</t>
+  </si>
+  <si>
+    <t>0.109</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.725+/-0.001</t>
+  </si>
+  <si>
+    <t>0.724+/-0.0</t>
+  </si>
+  <si>
+    <t>0.544+/-0.014</t>
+  </si>
+  <si>
+    <t>0.537+/-0.116</t>
+  </si>
+  <si>
+    <t>0.486</t>
+  </si>
+  <si>
+    <t>0.04+/-0.005</t>
+  </si>
+  <si>
+    <t>0.041+/-0.009</t>
+  </si>
+  <si>
+    <t>0.033</t>
+  </si>
+  <si>
+    <t>0.411+/-0.098</t>
+  </si>
+  <si>
+    <t>0.677+/-0.001</t>
+  </si>
+  <si>
+    <t>0.675+/-0.0</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>0.372+/-0.003</t>
+  </si>
+  <si>
+    <t>0.365+/-0.023</t>
+  </si>
+  <si>
+    <t>0.24+/-0.006</t>
+  </si>
+  <si>
+    <t>0.237+/-0.023</t>
+  </si>
+  <si>
+    <t>0.227</t>
+  </si>
+  <si>
+    <t>0.009+/-0.001</t>
+  </si>
+  <si>
+    <t>0.628+/-0.001</t>
+  </si>
+  <si>
+    <t>0.626+/-0.0</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>0.349+/-0.002</t>
+  </si>
+  <si>
+    <t>0.347+/-0.027</t>
   </si>
   <si>
     <t>0.32</t>
   </si>
   <si>
-    <t>0.205+/-0.033</t>
-  </si>
-  <si>
-    <t>0.079+/-0.024</t>
-  </si>
-  <si>
-    <t>0.064</t>
-  </si>
-  <si>
-    <t>0.058+/-0.005</t>
-  </si>
-  <si>
-    <t>0.801+/-0.0</t>
-  </si>
-  <si>
-    <t>0.799</t>
-  </si>
-  <si>
-    <t>0.922+/-0.032</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0.012+/-0.001</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>9.977+/-0.09</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.968+/-0.001</t>
-  </si>
-  <si>
-    <t>0.848+/-0.0</t>
-  </si>
-  <si>
-    <t>0.846</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.452+/-0.073</t>
+    <t>0.396+/-0.007</t>
+  </si>
+  <si>
+    <t>0.393+/-0.021</t>
+  </si>
+  <si>
+    <t>0.369</t>
+  </si>
+  <si>
+    <t>0.778+/-0.007</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>0.765+/-0.063</t>
+  </si>
+  <si>
+    <t>0.363+/-0.046</t>
   </si>
   <si>
     <t>0.395</t>
   </si>
   <si>
-    <t>0.785+/-0.004</t>
-  </si>
-  <si>
-    <t>0.058+/-0.01</t>
-  </si>
-  <si>
-    <t>0.054</t>
-  </si>
-  <si>
-    <t>0.6+/-0.17</t>
-  </si>
-  <si>
-    <t>0.1+/-0.3</t>
-  </si>
-  <si>
-    <t>0.001+/-0.003</t>
-  </si>
-  <si>
-    <t>0.34+/-0.044</t>
-  </si>
-  <si>
-    <t>0.663+/-0.03</t>
-  </si>
-  <si>
-    <t>0.66+/-0.0</t>
-  </si>
-  <si>
-    <t>0.639</t>
-  </si>
-  <si>
-    <t>0.235+/-0.01</t>
-  </si>
-  <si>
-    <t>0.231+/-0.016</t>
-  </si>
-  <si>
-    <t>0.206</t>
-  </si>
-  <si>
-    <t>0.547+/-0.041</t>
-  </si>
-  <si>
-    <t>0.538+/-0.037</t>
-  </si>
-  <si>
-    <t>0.491</t>
-  </si>
-  <si>
-    <t>0.004+/-0.0</t>
-  </si>
-  <si>
-    <t>0.736+/-0.005</t>
-  </si>
-  <si>
-    <t>0.735+/-0.0</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.258+/-0.003</t>
-  </si>
-  <si>
-    <t>0.256+/-0.017</t>
-  </si>
-  <si>
-    <t>0.212</t>
-  </si>
-  <si>
-    <t>0.404+/-0.013</t>
-  </si>
-  <si>
-    <t>0.402+/-0.027</t>
-  </si>
-  <si>
-    <t>0.344</t>
-  </si>
-  <si>
-    <t>0.863+/-0.004</t>
-  </si>
-  <si>
-    <t>0.838+/-0.0</t>
-  </si>
-  <si>
-    <t>0.848</t>
-  </si>
-  <si>
-    <t>0.779+/-0.041</t>
-  </si>
-  <si>
-    <t>0.23+/-0.144</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.121+/-0.044</t>
-  </si>
-  <si>
-    <t>0.036+/-0.022</t>
-  </si>
-  <si>
-    <t>0.036</t>
-  </si>
-  <si>
-    <t>2.775+/-0.615</t>
-  </si>
-  <si>
-    <t>0.879+/-0.003</t>
-  </si>
-  <si>
-    <t>0.83+/-0.0</t>
-  </si>
-  <si>
-    <t>0.836</t>
-  </si>
-  <si>
-    <t>0.889+/-0.018</t>
-  </si>
-  <si>
-    <t>0.264+/-0.061</t>
-  </si>
-  <si>
-    <t>0.259</t>
-  </si>
-  <si>
-    <t>0.224+/-0.024</t>
-  </si>
-  <si>
-    <t>0.074+/-0.019</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.049+/-0.004</t>
-  </si>
-  <si>
-    <t>0.874+/-0.003</t>
-  </si>
-  <si>
-    <t>0.829+/-0.0</t>
-  </si>
-  <si>
-    <t>0.832</t>
-  </si>
-  <si>
-    <t>0.872+/-0.041</t>
-  </si>
-  <si>
-    <t>0.213+/-0.059</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>0.192+/-0.023</t>
-  </si>
-  <si>
-    <t>0.055+/-0.023</t>
-  </si>
-  <si>
-    <t>0.047</t>
-  </si>
-  <si>
-    <t>0.054+/-0.004</t>
-  </si>
-  <si>
-    <t>0.852+/-0.0</t>
-  </si>
-  <si>
-    <t>0.953+/-0.062</t>
-  </si>
-  <si>
-    <t>0.05+/-0.15</t>
+    <t>0.297+/-0.056</t>
+  </si>
+  <si>
+    <t>0.141+/-0.038</t>
+  </si>
+  <si>
+    <t>0.136</t>
+  </si>
+  <si>
+    <t>11.376+/-3.102</t>
+  </si>
+  <si>
+    <t>0.799+/-0.008</t>
+  </si>
+  <si>
+    <t>0.691+/-0.0</t>
+  </si>
+  <si>
+    <t>0.706</t>
+  </si>
+  <si>
+    <t>0.857+/-0.033</t>
+  </si>
+  <si>
+    <t>0.358+/-0.038</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.333+/-0.04</t>
+  </si>
+  <si>
+    <t>0.142+/-0.02</t>
+  </si>
+  <si>
+    <t>0.144</t>
+  </si>
+  <si>
+    <t>0.082+/-0.003</t>
+  </si>
+  <si>
+    <t>0.78+/-0.005</t>
+  </si>
+  <si>
+    <t>0.701+/-0.0</t>
+  </si>
+  <si>
+    <t>0.695</t>
+  </si>
+  <si>
+    <t>0.813+/-0.029</t>
+  </si>
+  <si>
+    <t>0.387+/-0.053</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.269+/-0.032</t>
+  </si>
+  <si>
+    <t>0.132+/-0.032</t>
+  </si>
+  <si>
+    <t>0.138</t>
+  </si>
+  <si>
+    <t>0.111+/-0.002</t>
+  </si>
+  <si>
+    <t>0.736+/-0.001</t>
+  </si>
+  <si>
+    <t>0.725+/-0.0</t>
+  </si>
+  <si>
+    <t>0.869+/-0.022</t>
+  </si>
+  <si>
+    <t>0.598+/-0.192</t>
   </si>
   <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>0.01+/-0.001</t>
-  </si>
-  <si>
-    <t>0.004</t>
-  </si>
-  <si>
-    <t>8.101+/-0.068</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.97+/-0.018</t>
-  </si>
-  <si>
-    <t>0.698+/-0.0</t>
-  </si>
-  <si>
-    <t>0.709</t>
-  </si>
-  <si>
-    <t>0.977+/-0.069</t>
-  </si>
-  <si>
-    <t>0.381+/-0.06</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>0.923+/-0.025</t>
-  </si>
-  <si>
-    <t>0.136+/-0.042</t>
-  </si>
-  <si>
-    <t>0.128</t>
-  </si>
-  <si>
-    <t>0.725+/-0.001</t>
-  </si>
-  <si>
-    <t>0.724+/-0.0</t>
-  </si>
-  <si>
-    <t>0.722</t>
-  </si>
-  <si>
-    <t>0.546+/-0.014</t>
-  </si>
-  <si>
-    <t>0.533+/-0.123</t>
-  </si>
-  <si>
-    <t>0.471</t>
-  </si>
-  <si>
-    <t>0.04+/-0.005</t>
-  </si>
-  <si>
-    <t>0.04+/-0.007</t>
-  </si>
-  <si>
-    <t>0.031</t>
-  </si>
-  <si>
-    <t>0.182+/-0.053</t>
-  </si>
-  <si>
-    <t>0.679+/-0.001</t>
-  </si>
-  <si>
-    <t>0.677+/-0.0</t>
-  </si>
-  <si>
-    <t>0.674</t>
-  </si>
-  <si>
-    <t>0.371+/-0.003</t>
-  </si>
-  <si>
-    <t>0.366+/-0.024</t>
+    <t>0.056+/-0.004</t>
+  </si>
+  <si>
+    <t>0.03+/-0.01</t>
+  </si>
+  <si>
+    <t>21.059+/-2.541</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.974+/-0.001</t>
+  </si>
+  <si>
+    <t>0.667+/-0.0</t>
+  </si>
+  <si>
+    <t>0.677</t>
+  </si>
+  <si>
+    <t>0.386+/-0.038</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>0.916+/-0.002</t>
+  </si>
+  <si>
+    <t>0.139+/-0.023</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>0.003+/-0.001</t>
+  </si>
+  <si>
+    <t>0.694+/-0.001</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.558+/-0.013</t>
+  </si>
+  <si>
+    <t>0.512+/-0.1</t>
+  </si>
+  <si>
+    <t>0.037+/-0.005</t>
+  </si>
+  <si>
+    <t>0.034+/-0.013</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.28+/-0.024</t>
+  </si>
+  <si>
+    <t>0.653+/-0.002</t>
+  </si>
+  <si>
+    <t>0.653+/-0.0</t>
+  </si>
+  <si>
+    <t>0.651</t>
+  </si>
+  <si>
+    <t>0.386+/-0.005</t>
+  </si>
+  <si>
+    <t>0.384+/-0.032</t>
+  </si>
+  <si>
+    <t>0.383</t>
+  </si>
+  <si>
+    <t>0.212+/-0.002</t>
+  </si>
+  <si>
+    <t>0.211+/-0.022</t>
+  </si>
+  <si>
+    <t>0.216</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.613+/-0.001</t>
+  </si>
+  <si>
+    <t>0.613+/-0.0</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>0.368+/-0.002</t>
+  </si>
+  <si>
+    <t>0.368+/-0.012</t>
   </si>
   <si>
     <t>0.356</t>
   </si>
   <si>
-    <t>0.229+/-0.005</t>
-  </si>
-  <si>
-    <t>0.228+/-0.024</t>
-  </si>
-  <si>
-    <t>0.219</t>
-  </si>
-  <si>
-    <t>0.004+/-0.001</t>
-  </si>
-  <si>
-    <t>0.629+/-0.001</t>
-  </si>
-  <si>
-    <t>0.628+/-0.0</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.348+/-0.003</t>
-  </si>
-  <si>
-    <t>0.346+/-0.025</t>
-  </si>
-  <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.388+/-0.011</t>
-  </si>
-  <si>
-    <t>0.384+/-0.027</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.776+/-0.005</t>
-  </si>
-  <si>
-    <t>0.726</t>
-  </si>
-  <si>
-    <t>0.762+/-0.046</t>
-  </si>
-  <si>
-    <t>0.374+/-0.053</t>
-  </si>
-  <si>
-    <t>0.525</t>
-  </si>
-  <si>
-    <t>0.281+/-0.028</t>
-  </si>
-  <si>
-    <t>0.134+/-0.031</t>
-  </si>
-  <si>
-    <t>0.101</t>
-  </si>
-  <si>
-    <t>2.927+/-0.311</t>
-  </si>
-  <si>
-    <t>0.799+/-0.008</t>
-  </si>
-  <si>
-    <t>0.693+/-0.0</t>
-  </si>
-  <si>
-    <t>0.859+/-0.038</t>
-  </si>
-  <si>
-    <t>0.363+/-0.034</t>
-  </si>
-  <si>
-    <t>0.428</t>
-  </si>
-  <si>
-    <t>0.33+/-0.04</t>
-  </si>
-  <si>
-    <t>0.141+/-0.019</t>
-  </si>
-  <si>
-    <t>0.155</t>
-  </si>
-  <si>
-    <t>0.05+/-0.005</t>
-  </si>
-  <si>
-    <t>0.78+/-0.006</t>
-  </si>
-  <si>
-    <t>0.701+/-0.0</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.806+/-0.026</t>
-  </si>
-  <si>
-    <t>0.39+/-0.05</t>
-  </si>
-  <si>
-    <t>0.347</t>
-  </si>
-  <si>
-    <t>0.269+/-0.029</t>
-  </si>
-  <si>
-    <t>0.133+/-0.024</t>
-  </si>
-  <si>
-    <t>0.061+/-0.003</t>
-  </si>
-  <si>
-    <t>0.736+/-0.001</t>
-  </si>
-  <si>
-    <t>0.726+/-0.0</t>
-  </si>
-  <si>
-    <t>0.724</t>
-  </si>
-  <si>
-    <t>0.869+/-0.017</t>
-  </si>
-  <si>
-    <t>0.602+/-0.127</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>0.057+/-0.004</t>
-  </si>
-  <si>
-    <t>0.033+/-0.01</t>
-  </si>
-  <si>
-    <t>0.027</t>
-  </si>
-  <si>
-    <t>13.351+/-0.716</t>
-  </si>
-  <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.974+/-0.001</t>
-  </si>
-  <si>
-    <t>0.667+/-0.0</t>
-  </si>
-  <si>
-    <t>0.677</t>
-  </si>
-  <si>
-    <t>0.386+/-0.038</t>
-  </si>
-  <si>
-    <t>0.431</t>
-  </si>
-  <si>
-    <t>0.916+/-0.002</t>
-  </si>
-  <si>
-    <t>0.139+/-0.023</t>
-  </si>
-  <si>
-    <t>0.154</t>
-  </si>
-  <si>
-    <t>0.694+/-0.001</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.558+/-0.013</t>
-  </si>
-  <si>
-    <t>0.512+/-0.1</t>
-  </si>
-  <si>
-    <t>0.459</t>
-  </si>
-  <si>
-    <t>0.037+/-0.005</t>
-  </si>
-  <si>
-    <t>0.034+/-0.013</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.227+/-0.023</t>
-  </si>
-  <si>
-    <t>0.653+/-0.002</t>
-  </si>
-  <si>
-    <t>0.653+/-0.0</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>0.386+/-0.005</t>
-  </si>
-  <si>
-    <t>0.384+/-0.032</t>
-  </si>
-  <si>
-    <t>0.383</t>
-  </si>
-  <si>
-    <t>0.212+/-0.002</t>
-  </si>
-  <si>
-    <t>0.211+/-0.022</t>
-  </si>
-  <si>
-    <t>0.216</t>
-  </si>
-  <si>
-    <t>0.613+/-0.001</t>
-  </si>
-  <si>
-    <t>0.613+/-0.0</t>
-  </si>
-  <si>
-    <t>0.604</t>
-  </si>
-  <si>
-    <t>0.368+/-0.002</t>
-  </si>
-  <si>
-    <t>0.368+/-0.012</t>
-  </si>
-  <si>
     <t>0.359+/-0.006</t>
   </si>
   <si>
@@ -850,93 +856,84 @@
     <t>0.354</t>
   </si>
   <si>
-    <t>0.746+/-0.008</t>
-  </si>
-  <si>
-    <t>0.683</t>
-  </si>
-  <si>
-    <t>0.75+/-0.046</t>
-  </si>
-  <si>
-    <t>0.387+/-0.049</t>
-  </si>
-  <si>
-    <t>0.463</t>
-  </si>
-  <si>
-    <t>0.269+/-0.045</t>
-  </si>
-  <si>
-    <t>0.137+/-0.029</t>
-  </si>
-  <si>
-    <t>0.187</t>
-  </si>
-  <si>
-    <t>3.191+/-0.62</t>
-  </si>
-  <si>
-    <t>0.767+/-0.005</t>
-  </si>
-  <si>
-    <t>0.673</t>
-  </si>
-  <si>
-    <t>0.842+/-0.029</t>
-  </si>
-  <si>
-    <t>0.398+/-0.066</t>
-  </si>
-  <si>
-    <t>0.418</t>
-  </si>
-  <si>
-    <t>0.3+/-0.027</t>
-  </si>
-  <si>
-    <t>0.147+/-0.026</t>
-  </si>
-  <si>
-    <t>0.05+/-0.006</t>
-  </si>
-  <si>
-    <t>0.748+/-0.006</t>
+    <t>0.743+/-0.008</t>
+  </si>
+  <si>
+    <t>0.67+/-0.0</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.757+/-0.038</t>
+  </si>
+  <si>
+    <t>0.393+/-0.051</t>
+  </si>
+  <si>
+    <t>0.464</t>
+  </si>
+  <si>
+    <t>0.246+/-0.041</t>
+  </si>
+  <si>
+    <t>0.125+/-0.025</t>
+  </si>
+  <si>
+    <t>0.134</t>
+  </si>
+  <si>
+    <t>5.396+/-1.439</t>
+  </si>
+  <si>
+    <t>0.767+/-0.004</t>
+  </si>
+  <si>
+    <t>0.839+/-0.027</t>
+  </si>
+  <si>
+    <t>0.394+/-0.057</t>
+  </si>
+  <si>
+    <t>0.429</t>
+  </si>
+  <si>
+    <t>0.301+/-0.026</t>
+  </si>
+  <si>
+    <t>0.148+/-0.026</t>
+  </si>
+  <si>
+    <t>0.159</t>
+  </si>
+  <si>
+    <t>0.073+/-0.01</t>
+  </si>
+  <si>
+    <t>0.748+/-0.007</t>
   </si>
   <si>
     <t>0.672+/-0.0</t>
   </si>
   <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.81+/-0.021</t>
-  </si>
-  <si>
-    <t>0.392+/-0.057</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.24+/-0.029</t>
-  </si>
-  <si>
-    <t>0.115+/-0.022</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.06+/-0.004</t>
+    <t>0.824+/-0.041</t>
+  </si>
+  <si>
+    <t>0.393+/-0.067</t>
+  </si>
+  <si>
+    <t>0.234+/-0.035</t>
+  </si>
+  <si>
+    <t>0.111+/-0.024</t>
+  </si>
+  <si>
+    <t>0.08+/-0.009</t>
   </si>
   <si>
     <t>0.706+/-0.001</t>
   </si>
   <si>
-    <t>0.694+/-0.0</t>
-  </si>
-  <si>
     <t>0.693</t>
   </si>
   <si>
@@ -958,7 +955,7 @@
     <t>0.023</t>
   </si>
   <si>
-    <t>14.043+/-0.403</t>
+    <t>22.585+/-1.855</t>
   </si>
 </sst>
 </file>
@@ -1359,28 +1356,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1391,25 +1388,25 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -1423,28 +1420,28 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1455,28 +1452,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1487,28 +1484,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1519,28 +1516,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1551,28 +1548,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1583,28 +1580,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1615,28 +1612,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1644,31 +1641,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1718,31 +1715,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" t="s">
-        <v>93</v>
-      </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1750,31 +1747,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1782,31 +1779,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1817,28 +1814,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1849,28 +1846,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1881,28 +1878,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1913,28 +1910,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J8" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1945,28 +1942,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1977,28 +1974,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2006,31 +2003,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2080,31 +2077,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
         <v>195</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H2" t="s">
         <v>214</v>
       </c>
       <c r="I2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2112,31 +2109,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
         <v>196</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="H3" t="s">
         <v>215</v>
       </c>
       <c r="I3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2144,16 +2141,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
         <v>197</v>
@@ -2162,13 +2159,13 @@
         <v>206</v>
       </c>
       <c r="H4" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="I4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J4" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2179,13 +2176,13 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F5" t="s">
         <v>198</v>
@@ -2194,13 +2191,13 @@
         <v>207</v>
       </c>
       <c r="H5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2211,13 +2208,13 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F6" t="s">
         <v>199</v>
@@ -2226,13 +2223,13 @@
         <v>208</v>
       </c>
       <c r="H6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2243,13 +2240,13 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>200</v>
@@ -2258,13 +2255,13 @@
         <v>209</v>
       </c>
       <c r="H7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2275,10 +2272,10 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E8" t="s">
         <v>191</v>
@@ -2290,13 +2287,13 @@
         <v>210</v>
       </c>
       <c r="H8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2307,10 +2304,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E9" t="s">
         <v>192</v>
@@ -2322,13 +2319,13 @@
         <v>211</v>
       </c>
       <c r="H9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2339,10 +2336,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E10" t="s">
         <v>193</v>
@@ -2354,13 +2351,13 @@
         <v>212</v>
       </c>
       <c r="H10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I10" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="J10" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2368,28 +2365,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E11" t="s">
         <v>194</v>
       </c>
       <c r="F11" t="s">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
         <v>213</v>
       </c>
       <c r="H11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J11" t="s">
         <v>241</v>
@@ -2442,28 +2439,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
         <v>243</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E2" t="s">
         <v>260</v>
       </c>
       <c r="F2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J2" t="s">
         <v>304</v>
@@ -2474,31 +2471,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
         <v>244</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="E3" t="s">
         <v>261</v>
       </c>
       <c r="F3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G3" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="H3" t="s">
         <v>244</v>
       </c>
       <c r="I3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J3" t="s">
-        <v>305</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2506,31 +2503,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
         <v>245</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E4" t="s">
         <v>262</v>
       </c>
       <c r="F4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H4" t="s">
-        <v>287</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>296</v>
+        <v>113</v>
       </c>
       <c r="J4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2541,28 +2538,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E5" t="s">
         <v>263</v>
       </c>
       <c r="F5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2576,25 +2573,25 @@
         <v>246</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E6" t="s">
         <v>264</v>
       </c>
       <c r="F6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G6" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2608,25 +2605,25 @@
         <v>247</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
         <v>265</v>
       </c>
       <c r="F7" t="s">
-        <v>190</v>
+        <v>275</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I7" t="s">
-        <v>299</v>
+        <v>172</v>
       </c>
       <c r="J7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2646,19 +2643,19 @@
         <v>266</v>
       </c>
       <c r="F8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2678,19 +2675,19 @@
         <v>267</v>
       </c>
       <c r="F9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G9" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2710,19 +2707,19 @@
         <v>268</v>
       </c>
       <c r="F10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H10" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="I10" t="s">
-        <v>302</v>
+        <v>232</v>
       </c>
       <c r="J10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2730,31 +2727,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="D11" t="s">
         <v>259</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="I11" t="s">
         <v>303</v>
       </c>
       <c r="J11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
